--- a/SyncLogs/SynchronizeLogNewEntries - tasks.xlsx
+++ b/SyncLogs/SynchronizeLogNewEntries - tasks.xlsx
@@ -2,13 +2,92 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheets>
-    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId1"/>
+    <sheet sheetId="1" name="SynchronizeLogNewEntries" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+  <si>
+    <t>WorkbookName</t>
+  </si>
+  <si>
+    <t>SysSettings.xlsx</t>
+  </si>
+  <si>
+    <t>SheetName</t>
+  </si>
+  <si>
+    <t>Interpol_Extrapol_Defaults</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SysSettings</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>ACTCOST</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>MessageCategory</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>No records were generated for this row</t>
+  </si>
+  <si>
+    <t>CellAddress</t>
+  </si>
+  <si>
+    <t>37,2</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t>36,2</t>
+  </si>
+  <si>
+    <t>TagType</t>
+  </si>
+  <si>
+    <t>TFM_UPD</t>
+  </si>
+  <si>
+    <t>TFM_MIG</t>
+  </si>
+  <si>
+    <t>ProcessFilter</t>
+  </si>
+  <si>
+    <t>{"pset_pn": "IMPDEMZ", "pset_set": "IRE"}</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>{"pset_pn": "IMP*Z", "pset_set": "IRE"}</t>
+  </si>
+  <si>
+    <t>CommodityFilter</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25,12 +104,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,12 +250,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScale="100" topLeftCell="A1" workbookViewId="0" showGridLines="true" showRowColHeaders="true" view="normal"/>
   </sheetViews>
   <sheetFormatPr customHeight="false" defaultColWidth="9.28125" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>